--- a/output/excel/single_Ghost Rider 4S1P ATL CosMX HPT RS 20HK2 CCC Cert(Eng).xlsx
+++ b/output/excel/single_Ghost Rider 4S1P ATL CosMX HPT RS 20HK2 CCC Cert(Eng).xlsx
@@ -459,7 +459,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Page 1 (loc: bbox(top_left, xywh): [256,678,200,28]): "Model:20HK2"</t>
+          <t>Page 1 (loc: bbox(top_left, xywh): [256, 575, 300, 25]): "Model:20HK2 Rated Capacity:4102mAh, Nominal Energy:64Wh, Limited Charging Voltage:18.04V, Nominal Voltage:15.6V"</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Page 1 (loc: bbox(top_left, xywh): [256,678,400,28]): "Nominal Voltage:15.6V"</t>
+          <t>Page 1 (loc: bbox(top_left, xywh): [256, 575, 300, 25]): "Model:20HK2 Rated Capacity:4102mAh, Nominal Energy:64Wh, Limited Charging Voltage:18.04V, Nominal Voltage:15.6V"</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Page 1 (loc: bbox(top_left, xywh): [256,678,300,28]): "Rated Capacity:4102mAh"</t>
+          <t>Page 1 (loc: bbox(top_left, xywh): [256, 575, 300, 25]): "Model:20HK2 Rated Capacity:4102mAh, Nominal Energy:64Wh, Limited Charging Voltage:18.04V, Nominal Voltage:15.6V"</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Page 1 (loc: bbox(top_left, xywh): [256,678,350,28]): "Nominal Energy:64Wh"</t>
+          <t>Page 1 (loc: bbox(top_left, xywh): [256, 575, 300, 25]): "Model:20HK2 Rated Capacity:4102mAh, Nominal Energy:64Wh, Limited Charging Voltage:18.04V, Nominal Voltage:15.6V"</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>頁碼採絕對 1-based。文件主要語言為英文，含少量中文。未提供 typical 容量與 typical 電池容量數值，故為 null。</t>
+          <t>頁碼採絕對 1-based。文件主要語言為英文，含少量中文。未提供典型/正常容量與能量，故對應欄位為 null。</t>
         </is>
       </c>
     </row>

--- a/output/excel/single_Ghost Rider 4S1P ATL CosMX HPT RS 20HK2 CCC Cert(Eng).xlsx
+++ b/output/excel/single_Ghost Rider 4S1P ATL CosMX HPT RS 20HK2 CCC Cert(Eng).xlsx
@@ -459,7 +459,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Page 1 (loc: bbox(top_left, xywh): [256, 575, 300, 25]): "Model:20HK2 Rated Capacity:4102mAh, Nominal Energy:64Wh, Limited Charging Voltage:18.04V, Nominal Voltage:15.6V"</t>
+          <t>Page 1 (loc: bbox(top_left, xywh): [256, 493, 300, 28]): "Model:20HK2 Rated Capacity:4102mAh, Nominal Energy:64Wh, Limited Charging Voltage:18.04V, Nominal Voltage:15.6V"</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Page 1 (loc: bbox(top_left, xywh): [256, 575, 300, 25]): "Model:20HK2 Rated Capacity:4102mAh, Nominal Energy:64Wh, Limited Charging Voltage:18.04V, Nominal Voltage:15.6V"</t>
+          <t>Page 1 (loc: bbox(top_left, xywh): [256, 493, 300, 28]): "Model:20HK2 Rated Capacity:4102mAh, Nominal Energy:64Wh, Limited Charging Voltage:18.04V, Nominal Voltage:15.6V"</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Page 1 (loc: bbox(top_left, xywh): [256, 575, 300, 25]): "Model:20HK2 Rated Capacity:4102mAh, Nominal Energy:64Wh, Limited Charging Voltage:18.04V, Nominal Voltage:15.6V"</t>
+          <t>Page 1 (loc: bbox(top_left, xywh): [256, 493, 300, 28]): "Model:20HK2 Rated Capacity:4102mAh, Nominal Energy:64Wh, Limited Charging Voltage:18.04V, Nominal Voltage:15.6V"</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Page 1 (loc: bbox(top_left, xywh): [256, 575, 300, 25]): "Model:20HK2 Rated Capacity:4102mAh, Nominal Energy:64Wh, Limited Charging Voltage:18.04V, Nominal Voltage:15.6V"</t>
+          <t>Page 1 (loc: bbox(top_left, xywh): [256, 493, 300, 28]): "Model:20HK2 Rated Capacity:4102mAh, Nominal Energy:64Wh, Limited Charging Voltage:18.04V, Nominal Voltage:15.6V"</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>頁碼採絕對 1-based。文件主要語言為英文，含少量中文。未提供典型/正常容量與能量，故對應欄位為 null。</t>
+          <t>頁碼採絕對 1-based。本文件僅提供額定容量與額定能量，未提供典型/正常容量與典型/正常電池容量，故相關欄位為 null。主要語言為英文，部分中文標註。</t>
         </is>
       </c>
     </row>
